--- a/IEDC_LookupTable_fill/layers_data.xlsx
+++ b/IEDC_LookupTable_fill/layers_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Parameters of pdf of product discard</t>
+  </si>
+  <si>
+    <t>Mass per area</t>
+  </si>
+  <si>
+    <t>Mass per volume</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Mass per unit</t>
   </si>
 </sst>
 </file>
@@ -115,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -130,9 +145,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -434,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -470,7 +486,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -481,7 +497,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -492,7 +508,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -503,7 +519,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -514,7 +530,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -525,7 +541,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -536,7 +552,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -547,7 +563,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -558,7 +574,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -569,7 +585,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -580,19 +596,51 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IEDC_LookupTable_fill/layers_data.xlsx
+++ b/IEDC_LookupTable_fill/layers_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Mass per unit</t>
+  </si>
+  <si>
+    <t>Misc. physical units</t>
+  </si>
+  <si>
+    <t>Misc. units</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +648,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
